--- a/templates/MauTienLuong.xlsx
+++ b/templates/MauTienLuong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00-Dev\dienluc.tk\dienluc\src\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\FileStore\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E8A1A-14C5-45D9-8F98-3EDA3A20D404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50576EA-CABA-4762-9C89-AA8184E178C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,10 +44,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Thuc Tran</author>
     <author>THUCSPC</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B9F77293-D9E1-400F-ABBE-58CB2BFBAE89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thuc Tran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nhập chữ x</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -99,12 +126,6 @@
     <t>Thực lãnh</t>
   </si>
   <si>
-    <t>ID1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID2 </t>
-  </si>
-  <si>
     <t>Hệ số CB 
 bình quân</t>
   </si>
@@ -114,22 +135,31 @@
   <si>
     <t>Ông</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Chọn để gửi</t>
+  </si>
+  <si>
+    <t>155704070000641</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _F_-;\-* #,##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.00_)"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0\ _F_-;\-* #,##0.0\ _F_-;_-* &quot;-&quot;?\ _F_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.0\ _F_-;\-* #,##0.0\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _F_-;\-* #,##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0\ _F_-;\-* #,##0.0\ _F_-;_-* &quot;-&quot;?\ _F_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0\ _F_-;\-* #,##0.0\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +271,19 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,22 +329,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -681,7 +724,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -689,13 +732,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,15 +775,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1197,17 @@
     <cellStyle name="통화_1202" xfId="402" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
     <cellStyle name="표준_(정보부문)월별인원계획" xfId="403" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1598,7 +1655,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1607,8 +1664,8 @@
     <col min="2" max="2" width="9.88671875" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" style="7" customWidth="1"/>
@@ -1618,26 +1675,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="49.2" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
+      <c r="A1" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>7</v>
+      <c r="B1" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1652,21 +1709,21 @@
         <v>15082</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
-        <v>155704070000641</v>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="5">
         <v>6.78</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>15000000000</v>
       </c>
       <c r="I2" s="6"/>
@@ -1677,13 +1734,18 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",B1)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
